--- a/data/trans_bre/P1001-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.06066266990973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.908615604135971</v>
+        <v>6.908615604135967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2120242758300937</v>
@@ -649,7 +649,7 @@
         <v>0.8876448666633089</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.471454580394855</v>
+        <v>0.4714545803948547</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8707873356518986</v>
+        <v>-1.368750941163309</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.382619712607706</v>
+        <v>9.524086815280528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.327389436996057</v>
+        <v>5.401909005684666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.12041745309016</v>
+        <v>2.303172963353989</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06312721285833518</v>
+        <v>-0.09154472249559525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9604629843488599</v>
+        <v>0.9907313314032345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5126793046773218</v>
+        <v>0.544395221034268</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1169291088108985</v>
+        <v>0.1297233579496202</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.221671771637069</v>
+        <v>6.597888695705979</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.30173909637148</v>
+        <v>15.46971453382471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.87143215990128</v>
+        <v>10.89406182540431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.0990363617769</v>
+        <v>11.19596545774471</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.58153284128158</v>
+        <v>0.6254097120372606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.10529028937891</v>
+        <v>2.199119901975951</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.37817201389392</v>
+        <v>1.408889605258176</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8924406318941183</v>
+        <v>0.9115035100371959</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.15877504747976</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.059292337595965</v>
+        <v>5.059292337595964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2160550247019256</v>
@@ -749,7 +749,7 @@
         <v>0.8308340812971916</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.713849223960808</v>
+        <v>0.7138492239608079</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8020232177181194</v>
+        <v>-0.9216556099700658</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.84702125429779</v>
+        <v>4.092088565850053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.63604537802006</v>
+        <v>1.894500797284494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.800489261797895</v>
+        <v>2.751685881622377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1156884540145696</v>
+        <v>-0.126704436188044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4234603068867998</v>
+        <v>0.4688922383236349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.291633051030542</v>
+        <v>0.3016338970272477</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.323781749130397</v>
+        <v>0.3183898401331528</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.384561101278667</v>
+        <v>3.596197830679911</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.418699353606662</v>
+        <v>9.584419507845201</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.48104376800675</v>
+        <v>6.671830715901334</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.479057062200595</v>
+        <v>7.491907907916017</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6703102697801246</v>
+        <v>0.7064762742256088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.685205379172018</v>
+        <v>1.641676302445336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.67747597308789</v>
+        <v>1.694203036569133</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.289836316670185</v>
+        <v>1.293232545291323</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.897259386035187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.094363696310521</v>
+        <v>5.094363696310523</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.083083930651865</v>
@@ -849,7 +849,7 @@
         <v>1.555448523708306</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.490904388120223</v>
+        <v>1.490904388120224</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.878280405230102</v>
+        <v>1.862639309741358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.157568453133552</v>
+        <v>1.124309026375028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.487322538011923</v>
+        <v>3.378700604951875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.26301659849447</v>
+        <v>3.126606678322267</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4232727889315629</v>
+        <v>0.4070647507289071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1353247206730448</v>
+        <v>0.1358401665848514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6752445239400494</v>
+        <v>0.6920423541028721</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7218779745762641</v>
+        <v>0.6957552582557807</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.868435782215606</v>
+        <v>5.948909803986456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.365095331405536</v>
+        <v>6.623194200607426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.708621945154304</v>
+        <v>8.523408907155803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.069434910174819</v>
+        <v>6.958009225011313</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.29247821595708</v>
+        <v>2.146558012474264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.272147724555948</v>
+        <v>1.274650566261539</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.878108365825428</v>
+        <v>2.951505817964128</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.636560078470337</v>
+        <v>2.612466992024117</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.713632827312233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.728816321688073</v>
+        <v>4.728816321688074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8377985980325777</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2124200952804242</v>
+        <v>-0.1250798239611262</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1526932310310425</v>
+        <v>0.2285532126763534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.321471101208819</v>
+        <v>1.759625581254451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.702814260276625</v>
+        <v>2.676069619737294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1274021058270228</v>
+        <v>-0.0536547869457451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0001343702850618543</v>
+        <v>0.002791977553616348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2040742146887985</v>
+        <v>0.2698490958238441</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5860766044151484</v>
+        <v>0.5926651371090104</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.903606860335062</v>
+        <v>5.720396471389888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.562314914851917</v>
+        <v>7.215401347031915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.901502377261373</v>
+        <v>8.348072401297898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.640948479713575</v>
+        <v>6.649447342712664</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.624226728178111</v>
+        <v>2.801669523883959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.909483015069864</v>
+        <v>1.770057987536204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.413882229424654</v>
+        <v>2.716068546684828</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.007925202480099</v>
+        <v>2.840683323375861</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.136188444223517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.68825743361243</v>
+        <v>5.688257433612433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.572032252640344</v>
@@ -1049,7 +1049,7 @@
         <v>1.020954643304449</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9505803903092335</v>
+        <v>0.9505803903092344</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.068649924540618</v>
+        <v>2.102295666358521</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.868172492810861</v>
+        <v>6.013507540747351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.683891540137157</v>
+        <v>4.736415499129153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.342409904016908</v>
+        <v>4.427608301628575</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3063151626776716</v>
+        <v>0.3237858569036711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7474457909006044</v>
+        <v>0.7778772674468416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7112813303013951</v>
+        <v>0.685425957691228</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6449196640564974</v>
+        <v>0.6512076922985179</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.682827762917897</v>
+        <v>4.641998928526343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.122172642135979</v>
+        <v>8.9234534233702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.606043860451709</v>
+        <v>7.544375094641509</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.947609710852047</v>
+        <v>6.912444071664294</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8826061112405715</v>
+        <v>0.8773560742717961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.404453412723127</v>
+        <v>1.394432414802155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.42008385091374</v>
+        <v>1.383369484099723</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.317102802086412</v>
+        <v>1.286063500635564</v>
       </c>
     </row>
     <row r="19">
